--- a/config.xlsx
+++ b/config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="report_types" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="406">
   <si>
     <t xml:space="preserve">Type</t>
   </si>
@@ -45,6 +45,9 @@
     <t xml:space="preserve">Header</t>
   </si>
   <si>
+    <t xml:space="preserve">Multiply</t>
+  </si>
+  <si>
     <t xml:space="preserve">unicredit</t>
   </si>
   <si>
@@ -66,7 +69,7 @@
     <t xml:space="preserve">Egeszsegpenztar</t>
   </si>
   <si>
-    <t xml:space="preserve">53_checking</t>
+    <t xml:space="preserve">53_checking_debit</t>
   </si>
   <si>
     <t xml:space="preserve">USD</t>
@@ -78,12 +81,18 @@
     <t xml:space="preserve">;</t>
   </si>
   <si>
-    <t xml:space="preserve">53_savings</t>
+    <t xml:space="preserve">53_checking_credit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53_savings_debit</t>
   </si>
   <si>
     <t xml:space="preserve">53.Savings</t>
   </si>
   <si>
+    <t xml:space="preserve">53_savings_credit</t>
+  </si>
+  <si>
     <t xml:space="preserve">capital_one</t>
   </si>
   <si>
@@ -366,6 +375,9 @@
     <t xml:space="preserve">REL-Gifts</t>
   </si>
   <si>
+    <t xml:space="preserve">REL-Counseling</t>
+  </si>
+  <si>
     <t xml:space="preserve">REL-Other</t>
   </si>
   <si>
@@ -375,6 +387,9 @@
     <t xml:space="preserve">OFF-Fines</t>
   </si>
   <si>
+    <t xml:space="preserve">OFF-Tax</t>
+  </si>
+  <si>
     <t xml:space="preserve">OFF-Legal fees</t>
   </si>
   <si>
@@ -387,6 +402,12 @@
     <t xml:space="preserve">FLT-Rent</t>
   </si>
   <si>
+    <t xml:space="preserve">FLT-Energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLT-Water</t>
+  </si>
+  <si>
     <t xml:space="preserve">FLT-Utilities</t>
   </si>
   <si>
@@ -426,6 +447,9 @@
     <t xml:space="preserve">SHP-Baby</t>
   </si>
   <si>
+    <t xml:space="preserve">SHP-Amazon</t>
+  </si>
+  <si>
     <t xml:space="preserve">SHP-Other</t>
   </si>
   <si>
@@ -474,6 +498,9 @@
     <t xml:space="preserve">Transfer</t>
   </si>
   <si>
+    <t xml:space="preserve">Deposit</t>
+  </si>
+  <si>
     <t xml:space="preserve">Unicredit.Deposit</t>
   </si>
   <si>
@@ -591,9 +618,6 @@
     <t xml:space="preserve">TELEKOM/MOBIL</t>
   </si>
   <si>
-    <t xml:space="preserve">Deposit</t>
-  </si>
-  <si>
     <t xml:space="preserve">DEPOSIT YC1S31844 SYSTEM GENERATED</t>
   </si>
   <si>
@@ -954,6 +978,216 @@
     <t xml:space="preserve">WESTERLY HEALTH</t>
   </si>
   <si>
+    <t xml:space="preserve">OVERDRAFT TRANSFER FEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OVERDRAFT TRANSFER FROM XXXXXXXXXXXX1480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTEREST PAID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONLINE TRANSFER TO CARD 5215 0749 0519 5629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAYMENT TO CAPITAL ONE-ONLINE PMT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAYMENT TO SUEZ WATER NEW J-WATER BILL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEW YORK KIMCHI NEW YORK NY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTA*METROCARD MACHINE NE W YORK NY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERIZON*RECURRING PAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROJO HARDWARE UNION CITY NJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CVS/PHARMACY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NJMVC NORTH BERGEN NBE N ORTH BERGEN NJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Driver’s licence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACME #1893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIG LOTS #5323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOLLAR TREE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTEREST CHARGE:PURCHASES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTUIT *TURBOTAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAST DUE FEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2G*SERVICE FEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2G*US TREAS TAX PYMT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEAMLSSANTHONYPIZZAAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHOPPERS WORLD BERGEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE UPS STORE #6780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNION CITY HOME CENTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALUE DOLLARS STORE INC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WALGREENS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WYCLIFFE BIBLE TRANSLAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAYMENT - THANK YOU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hellinger-Sólymos Krisztina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE-cc@google.com GOOGLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA | NA | CRT to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA | NA | Int.Appl.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HLT-Insurance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signal Biztosító Zrt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAYPAL PTE LTD | 10918001-00000001-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA | NA | 4476 XXXX XXXX 1025 / null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTHLY SERVICE CHARGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORPORATE PARTNERS ADVANCE DIRECT DEPOSIT OFFER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPOSIT FROM PAYPAL-VERIFYBANK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anna Koranyi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jogosítvány</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grove Reformed Church</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAYMENT TO GREAT LAKES-STUDENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAYMENT TO INSTAMED-INSTAMED A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MORGAN STANLEY-ACH DEBIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAVIENT-FDR-AUTOPAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUBLIC SERVICE-PSEG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE ALEXANDER GR-WEB PMTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOBILEQUBES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIPPORI JAPANESE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMZN DIGITAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IKEA.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOWES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHOPRITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE HOME DEPOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEAM 800-343-3144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stephen &amp; Jessica Langley in SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAYMENT TO 5/3 CREDIT CARD-PAYMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAYMENT TO PAYPAL-VERIFYBANK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORTHOFEET SHOES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUEZ WATER   NEWJERSEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBER   TRIP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">99 CENTS DYNASTY INC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOLLAR POWER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETAROUND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROUPON INC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIZZARRAS RESTAURANT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TELCO STORES</t>
+  </si>
+  <si>
     <t xml:space="preserve">AccountType</t>
   </si>
   <si>
@@ -975,10 +1209,13 @@
     <t xml:space="preserve">Cash</t>
   </si>
   <si>
+    <t xml:space="preserve">2019.03.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019.02.04</t>
+  </si>
+  <si>
     <t xml:space="preserve">2019.02.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019.02.04</t>
   </si>
   <si>
     <t xml:space="preserve">2019.02.20</t>
@@ -1018,7 +1255,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1029,19 +1266,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="238"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="238"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="238"/>
     </font>
     <font>
       <b val="true"/>
@@ -1049,6 +1283,17 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1093,7 +1338,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1111,11 +1356,27 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1147,16 +1408,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.35"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.52"/>
@@ -1179,68 +1440,74 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1248,10 +1515,16 @@
         <v>18</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>19</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1259,41 +1532,69 @@
         <v>20</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="0" t="s">
+      <c r="E11" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="4" t="n">
-        <v>0</v>
+      <c r="B12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -1301,8 +1602,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normál"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normál"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Általános"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Általános"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1314,13 +1615,13 @@
   </sheetPr>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.71"/>
@@ -1332,150 +1633,150 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>2</v>
@@ -1483,125 +1784,125 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>0</v>
@@ -1609,128 +1910,128 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1738,8 +2039,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normál"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normál"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Általános"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Általános"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1752,7 +2053,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1765,18 +2066,18 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>100</v>
@@ -1787,7 +2088,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>50</v>
@@ -1798,7 +2099,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>20</v>
@@ -1809,7 +2110,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>10</v>
@@ -1820,18 +2121,18 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2</v>
@@ -1842,18 +2143,18 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.5</v>
@@ -1864,7 +2165,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.25</v>
@@ -1873,12 +2174,12 @@
         <v>0</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.1</v>
@@ -1887,12 +2188,12 @@
         <v>0</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.05</v>
@@ -1901,26 +2202,26 @@
         <v>0</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.01</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1</v>
@@ -1929,26 +2230,26 @@
         <v>0</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>20000</v>
@@ -1959,7 +2260,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>10000</v>
@@ -1970,7 +2271,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>5000</v>
@@ -1981,7 +2282,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>2000</v>
@@ -1992,7 +2293,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>1000</v>
@@ -2003,7 +2304,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>500</v>
@@ -2014,7 +2315,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>200</v>
@@ -2025,7 +2326,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>100</v>
@@ -2036,7 +2337,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>50</v>
@@ -2047,7 +2348,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>20</v>
@@ -2058,7 +2359,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>10</v>
@@ -2069,7 +2370,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>5</v>
@@ -2080,7 +2381,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>1</v>
@@ -2089,12 +2390,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>20</v>
@@ -2105,7 +2406,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>10</v>
@@ -2116,7 +2417,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>5</v>
@@ -2127,7 +2428,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>2</v>
@@ -2138,7 +2439,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>1</v>
@@ -2149,7 +2450,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0.5</v>
@@ -2160,7 +2461,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0.2</v>
@@ -2171,7 +2472,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0.1</v>
@@ -2182,7 +2483,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.05</v>
@@ -2193,7 +2494,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0.02</v>
@@ -2204,7 +2505,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0.01</v>
@@ -2218,8 +2519,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normál"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normál"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Általános"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Általános"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -2245,12 +2546,12 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>280</v>
@@ -2258,7 +2559,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>260</v>
@@ -2266,7 +2567,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
@@ -2277,8 +2578,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normál"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normál"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Általános"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Általános"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -2288,10 +2589,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C63" activeCellId="0" sqref="C63"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2304,566 +2605,566 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>117</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>117</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>146</v>
@@ -2871,140 +3172,206 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>34</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>153</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>153</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>157</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C60" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D60" s="0" t="s">
         <v>158</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>159</v>
+        <v>85</v>
       </c>
       <c r="B62" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C62" s="0" t="s">
         <v>160</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C63" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B64" s="0" t="s">
         <v>162</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3012,8 +3379,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normál"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normál"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Általános"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Általános"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -3023,1144 +3390,1673 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D135"/>
+  <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A107" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B120" activeCellId="0" sqref="B120"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A138" activeCellId="0" sqref="A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.18"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="15.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="42.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="10.18"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="4" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" s="4" t="n">
+        <v>8430874429</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="B76" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="4" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="B38" s="0" t="s">
+      <c r="B172" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="4" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="B175" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B60" s="0" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="B61" s="0" t="n">
-        <v>8430874429</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="C89" s="0" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B93" s="0" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B94" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="C94" s="0" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B95" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="B97" s="0" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="B98" s="0" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="B99" s="0" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="B100" s="0" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="B101" s="0" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="B102" s="0" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="B103" s="0" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="B104" s="0" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="B105" s="0" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="B114" s="0" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="B115" s="0" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="B116" s="0" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="B117" s="0" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B118" s="0" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="B120" s="0" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>307</v>
+      <c r="B194" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -4168,8 +5064,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normál"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normál"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Általános"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Általános"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -4179,10 +5075,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4193,46 +5089,49 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="6" width="17.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="10" width="17.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.74"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>308</v>
+        <v>386</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>309</v>
+        <v>387</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>310</v>
+        <v>79</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>388</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>311</v>
+        <v>389</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>312</v>
+        <v>390</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>313</v>
+        <v>391</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>314</v>
+        <v>392</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>19310</v>
@@ -4249,13 +5148,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>312</v>
+        <v>390</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>313</v>
+        <v>391</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>504226.59</v>
@@ -4272,13 +5171,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>312</v>
+        <v>390</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>313</v>
+        <v>391</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0.41</v>
@@ -4289,19 +5188,19 @@
       <c r="F4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>315</v>
+      <c r="G4" s="10" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>312</v>
+        <v>390</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>313</v>
+        <v>391</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>375013.74</v>
@@ -4312,19 +5211,19 @@
       <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>315</v>
+      <c r="G5" s="10" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>312</v>
+        <v>390</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>313</v>
+        <v>391</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>876487.84</v>
@@ -4335,19 +5234,19 @@
       <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>316</v>
+      <c r="G6" s="10" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>312</v>
+        <v>390</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>313</v>
+        <v>391</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>131470</v>
@@ -4358,19 +5257,19 @@
       <c r="F7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>315</v>
+      <c r="G7" s="10" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>312</v>
+        <v>390</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>313</v>
+        <v>391</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>76048</v>
@@ -4381,19 +5280,19 @@
       <c r="F8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>317</v>
+      <c r="G8" s="10" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>312</v>
+        <v>390</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>313</v>
+        <v>391</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>0</v>
@@ -4410,13 +5309,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>312</v>
+        <v>390</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>313</v>
+        <v>391</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>0</v>
@@ -4433,13 +5332,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>312</v>
+        <v>390</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>313</v>
+        <v>391</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>0</v>
@@ -4456,13 +5355,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>312</v>
+        <v>390</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>313</v>
+        <v>391</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>0</v>
@@ -4474,18 +5373,18 @@
         <v>0</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>312</v>
+        <v>390</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>318</v>
+        <v>397</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>0</v>
@@ -4499,13 +5398,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>312</v>
+        <v>390</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>318</v>
+        <v>397</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>210600</v>
@@ -4519,13 +5418,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>312</v>
+        <v>390</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>318</v>
+        <v>397</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>334450</v>
@@ -4539,13 +5438,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>319</v>
+        <v>398</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>320</v>
+        <v>399</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>0</v>
@@ -4559,16 +5458,19 @@
       <c r="H16" s="0" t="n">
         <v>30</v>
       </c>
+      <c r="I16" s="0" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>319</v>
+        <v>398</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>320</v>
+        <v>399</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>0</v>
@@ -4582,16 +5484,19 @@
       <c r="H17" s="0" t="n">
         <v>30</v>
       </c>
+      <c r="I17" s="0" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>319</v>
+        <v>398</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>320</v>
+        <v>399</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>0</v>
@@ -4605,13 +5510,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>319</v>
+        <v>398</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>321</v>
+        <v>400</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>0</v>
@@ -4625,13 +5530,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>319</v>
+        <v>398</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>321</v>
+        <v>400</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>0</v>
@@ -4648,8 +5553,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normál"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normál"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Általános"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Általános"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -4659,10 +5564,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4681,216 +5586,217 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>322</v>
+        <v>401</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>323</v>
+        <v>402</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>324</v>
+        <v>403</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="2" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="B2" s="8" t="n">
+        <v>404</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="B2" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>73053.4</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1363491.24</v>
+      <c r="C2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>71936.2</v>
+      </c>
+    </row>
+    <row r="3" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>-100000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>50000.01</v>
+        <v>1363491.24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>400013.74</v>
+        <v>50000.01</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>2041912.17</v>
+        <v>400013.74</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0.18</v>
+        <v>2041912.17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0.74</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>-1063</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>-1063</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>63873</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>2178.66</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>18</v>
+        <v>63873</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="D13" s="0" t="n">
-        <v>1687.34</v>
+        <v>2178.66</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="D14" s="0" t="n">
-        <v>887.2</v>
+        <v>1687.34</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>19</v>
@@ -4898,19 +5804,19 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>40.92</v>
+        <v>887.2</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4918,24 +5824,27 @@
         <v>19</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0</v>
+        <v>40.92</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>0</v>
@@ -4943,19 +5852,242 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>533.98</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>1664497.13</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>4.73</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>1724930.41</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B18" s="0" t="n">
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>5331.57</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>4256.86</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>-533.98</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>1</v>
+      <c r="C28" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>2542.89</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>35.16</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>801.99</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>154.7</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -4963,8 +6095,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normál"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normál"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Általános"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Általános"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -4977,7 +6109,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4990,10 +6122,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>326</v>
+        <v>405</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -5001,35 +6133,35 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3" s="5" t="n">
-        <v>215218.51</v>
+        <v>155</v>
+      </c>
+      <c r="B3" s="7" t="n">
+        <v>-8781.49</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -5037,8 +6169,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normál"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normál"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Általános"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Általános"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/config.xlsx
+++ b/config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="report_types" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="405">
   <si>
     <t xml:space="preserve">Type</t>
   </si>
@@ -1086,9 +1086,6 @@
     <t xml:space="preserve">PAYPAL PTE LTD | 10918001-00000001-</t>
   </si>
   <si>
-    <t xml:space="preserve">Pending</t>
-  </si>
-  <si>
     <t xml:space="preserve">NA | NA | 4476 XXXX XXXX 1025 / null</t>
   </si>
   <si>
@@ -1203,7 +1200,7 @@
     <t xml:space="preserve">ASSETS</t>
   </si>
   <si>
-    <t xml:space="preserve">Current assets</t>
+    <t xml:space="preserve">Current Assets</t>
   </si>
   <si>
     <t xml:space="preserve">Cash</t>
@@ -1227,10 +1224,10 @@
     <t xml:space="preserve">LIABILITIES</t>
   </si>
   <si>
-    <t xml:space="preserve">Current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Long term</t>
+    <t xml:space="preserve">Current Liabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long Term Liabilities</t>
   </si>
   <si>
     <t xml:space="preserve">Month</t>
@@ -1255,7 +1252,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1289,11 +1286,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1338,7 +1330,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1372,10 +1364,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2591,8 +2579,8 @@
   </sheetPr>
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C62" activeCellId="0" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3392,8 +3380,8 @@
   </sheetPr>
   <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A138" activeCellId="0" sqref="A138"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4806,11 +4794,11 @@
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="4" t="s">
+      <c r="A170" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B170" s="4" t="s">
         <v>352</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4818,7 +4806,7 @@
         <v>154</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4826,7 +4814,7 @@
         <v>165</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4834,7 +4822,7 @@
         <v>154</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4842,10 +4830,10 @@
         <v>120</v>
       </c>
       <c r="B174" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C174" s="4" t="s">
         <v>357</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4853,7 +4841,7 @@
         <v>200</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4861,7 +4849,7 @@
         <v>148</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4869,7 +4857,7 @@
         <v>108</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4877,7 +4865,7 @@
         <v>144</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4885,7 +4873,7 @@
         <v>149</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4893,7 +4881,7 @@
         <v>124</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4901,15 +4889,15 @@
         <v>123</v>
       </c>
       <c r="B181" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B182" s="4" t="s">
         <v>365</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4917,31 +4905,31 @@
         <v>112</v>
       </c>
       <c r="B183" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B184" s="4" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B184" s="4" t="s">
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B185" s="4" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="9" t="s">
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B185" s="4" t="s">
+      <c r="B186" s="4" t="s">
         <v>369</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4949,15 +4937,15 @@
         <v>102</v>
       </c>
       <c r="B187" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B188" s="4" t="s">
         <v>371</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4965,10 +4953,10 @@
         <v>200</v>
       </c>
       <c r="B189" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C189" s="4" t="s">
         <v>373</v>
-      </c>
-      <c r="C189" s="4" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4976,7 +4964,7 @@
         <v>155</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4984,63 +4972,63 @@
         <v>154</v>
       </c>
       <c r="B191" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B192" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="9" t="s">
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B192" s="4" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B193" s="7" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="9" t="s">
+      <c r="B195" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B194" s="4" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B195" s="4" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="9" t="s">
+      <c r="B197" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B196" s="4" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B197" s="4" t="s">
+      <c r="B198" s="4" t="s">
         <v>382</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5048,15 +5036,15 @@
         <v>112</v>
       </c>
       <c r="B199" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B200" s="4" t="s">
         <v>384</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -5077,29 +5065,29 @@
   </sheetPr>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="10" width="17.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="17.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.74"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -5113,11 +5101,11 @@
       <c r="F1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>5</v>
@@ -5125,13 +5113,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>391</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>392</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>19310</v>
@@ -5148,10 +5136,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>390</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>391</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>39</v>
@@ -5171,10 +5159,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>390</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>391</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>53</v>
@@ -5188,16 +5176,16 @@
       <c r="F4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>393</v>
+      <c r="G4" s="9" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>390</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>391</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>55</v>
@@ -5211,16 +5199,16 @@
       <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>393</v>
+      <c r="G5" s="9" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>390</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>391</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>157</v>
@@ -5234,16 +5222,16 @@
       <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>394</v>
+      <c r="G6" s="9" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>390</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>391</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>10</v>
@@ -5257,16 +5245,16 @@
       <c r="F7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>395</v>
+      <c r="G7" s="9" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>390</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>391</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>12</v>
@@ -5280,16 +5268,16 @@
       <c r="F8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>396</v>
+      <c r="G8" s="9" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>390</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>391</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>19</v>
@@ -5309,10 +5297,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>390</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>391</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>15</v>
@@ -5332,10 +5320,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>390</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>391</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>24</v>
@@ -5355,10 +5343,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>390</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>391</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>26</v>
@@ -5378,10 +5366,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>144</v>
@@ -5398,10 +5386,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>145</v>
@@ -5418,10 +5406,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>142</v>
@@ -5438,10 +5426,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>398</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>399</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>22</v>
@@ -5464,10 +5452,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="B17" s="0" t="s">
         <v>398</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>399</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>28</v>
@@ -5490,10 +5478,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="B18" s="0" t="s">
         <v>398</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>399</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>150</v>
@@ -5510,10 +5498,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>149</v>
@@ -5530,10 +5518,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>148</v>
@@ -5566,7 +5554,7 @@
   </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -5586,50 +5574,50 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>159</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>404</v>
-      </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="B2" s="12" t="n">
+    <row r="2" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="B2" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="7" t="n">
         <v>71936.2</v>
       </c>
     </row>
-    <row r="3" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+    <row r="3" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="12" t="n">
+      <c r="B3" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="12" t="n">
+      <c r="D3" s="11" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="7" t="n">
@@ -6125,7 +6113,7 @@
         <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
